--- a/Vallarta/rondaY.xlsx
+++ b/Vallarta/rondaY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="82">
   <si>
     <t>Movil</t>
   </si>
@@ -25,13 +25,229 @@
     <t>Imagen</t>
   </si>
   <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
-https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0129</t>
+    <t>4433400314</t>
+  </si>
+  <si>
+    <t>3335974581</t>
+  </si>
+  <si>
+    <t>3434270445</t>
+  </si>
+  <si>
+    <t>4521071268</t>
+  </si>
+  <si>
+    <t>3335085862</t>
+  </si>
+  <si>
+    <t>3411083920</t>
+  </si>
+  <si>
+    <t>3318507788</t>
+  </si>
+  <si>
+    <t>3334402014</t>
+  </si>
+  <si>
+    <t>3411462014</t>
+  </si>
+  <si>
+    <t>4432885314</t>
+  </si>
+  <si>
+    <t>3315170011</t>
+  </si>
+  <si>
+    <t>3332015513</t>
+  </si>
+  <si>
+    <t>3331828951</t>
+  </si>
+  <si>
+    <t>3314663761</t>
+  </si>
+  <si>
+    <t>3321916212</t>
+  </si>
+  <si>
+    <t>311 103 2584</t>
+  </si>
+  <si>
+    <t>3331270202</t>
+  </si>
+  <si>
+    <t>3336621415</t>
+  </si>
+  <si>
+    <t>5522701047</t>
+  </si>
+  <si>
+    <t>4747380252</t>
+  </si>
+  <si>
+    <t>3481217617</t>
+  </si>
+  <si>
+    <t>3336778915</t>
+  </si>
+  <si>
+    <t>4433460868</t>
+  </si>
+  <si>
+    <t>3334975686</t>
+  </si>
+  <si>
+    <t>3335552006</t>
+  </si>
+  <si>
+    <t>3329647616</t>
+  </si>
+  <si>
+    <t>3757560169</t>
+  </si>
+  <si>
+    <t>3335597256</t>
+  </si>
+  <si>
+    <t>3535351033</t>
+  </si>
+  <si>
+    <t>3316339041</t>
+  </si>
+  <si>
+    <t>3334403115</t>
+  </si>
+  <si>
+    <t>311 103 1824</t>
+  </si>
+  <si>
+    <t>3320022400</t>
+  </si>
+  <si>
+    <t>3334760160</t>
+  </si>
+  <si>
+    <t>3331952535</t>
+  </si>
+  <si>
+    <t>3322689657</t>
+  </si>
+  <si>
+    <t>3333990903</t>
+  </si>
+  <si>
+    <t>3314793110</t>
+  </si>
+  <si>
+    <t>4432750212</t>
+  </si>
+  <si>
+    <t>4433115284</t>
+  </si>
+  <si>
+    <t>3881017114</t>
+  </si>
+  <si>
+    <t>3333793651</t>
+  </si>
+  <si>
+    <t>4433300850</t>
+  </si>
+  <si>
+    <t>3531084144</t>
+  </si>
+  <si>
+    <t>3481054406</t>
+  </si>
+  <si>
+    <t>3511071791</t>
+  </si>
+  <si>
+    <t>3334487027</t>
+  </si>
+  <si>
+    <t>3318635310</t>
+  </si>
+  <si>
+    <t>3331470808</t>
+  </si>
+  <si>
+    <t>3319172125</t>
+  </si>
+  <si>
+    <t>3316045376</t>
+  </si>
+  <si>
+    <t>4969615171</t>
+  </si>
+  <si>
+    <t>4431017835</t>
+  </si>
+  <si>
+    <t>3317254189</t>
+  </si>
+  <si>
+    <t>3318522825</t>
+  </si>
+  <si>
+    <t>311 105 6623</t>
+  </si>
+  <si>
+    <t>3339005439</t>
+  </si>
+  <si>
+    <t>5522715076</t>
+  </si>
+  <si>
+    <t>3331396721</t>
+  </si>
+  <si>
+    <t>3318931760</t>
+  </si>
+  <si>
+    <t>3314710572</t>
+  </si>
+  <si>
+    <t>3511863623</t>
+  </si>
+  <si>
+    <t>3334481765</t>
+  </si>
+  <si>
+    <t>3320566229</t>
+  </si>
+  <si>
+    <t>3316028663</t>
+  </si>
+  <si>
+    <t>3336773563</t>
+  </si>
+  <si>
+    <t>3323752289</t>
+  </si>
+  <si>
+    <t>4751027431</t>
+  </si>
+  <si>
+    <t>3316613222</t>
+  </si>
+  <si>
+    <t>3317178429</t>
+  </si>
+  <si>
+    <t>3511494709</t>
+  </si>
+  <si>
+    <t>311 106 7972</t>
+  </si>
+  <si>
+    <t>3338086928</t>
+  </si>
+  <si>
+    <t>3891001887</t>
+  </si>
+  <si>
+    <t>3931262752</t>
   </si>
   <si>
     <t>🚀 ¡No te pierdas el EXPO del SUMMIT TURÍSTICO INTERNACIONAL en Puerto Vallarta! 🌎✨
@@ -46,10 +262,19 @@
 ¡Lleva tu carrera al siguiente nivel! 🌟</t>
   </si>
   <si>
+    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
+🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
+📆 27-28 de junio
+📍 Centro Internacional de Convenciones, Puerto Vallarta
+https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
+Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
+📲 Más info: 56 1858 7276 / 32 2596 0129</t>
+  </si>
+  <si>
+    <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\simmitb.png</t>
+  </si>
+  <si>
     <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\summita.png</t>
-  </si>
-  <si>
-    <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\simmitb.png</t>
   </si>
 </sst>
 </file>
@@ -407,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,1103 +650,1653 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>3221926080</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>3221050120</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3221919730</v>
+        <v>3123195570</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3129438291</v>
+        <v>3122564434</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>3231076749</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>3173871886</v>
-      </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3222715955</v>
+        <v>3121393478</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
-        <v>3227799982</v>
+      <c r="A9" t="s">
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
-        <v>3221344887</v>
+      <c r="A10" t="s">
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
-        <v>3221280621</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
-        <v>3141104549</v>
+      <c r="A12" t="s">
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3143532932</v>
+        <v>3121483855</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>3222007651</v>
+        <v>3121498284</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
-        <v>3221710120</v>
+      <c r="A15" t="s">
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
-        <v>3121428580</v>
+      <c r="A16" t="s">
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>3121553334</v>
+        <v>3121375673</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
-        <v>3173896604</v>
+      <c r="A18" t="s">
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
-        <v>3121483855</v>
+      <c r="A19" t="s">
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>3141442114</v>
+        <v>3531036254</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3121982565</v>
+        <v>3121572352</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
-        <v>3121435565</v>
+      <c r="A22" t="s">
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
-        <v>3122425519</v>
+      <c r="A23" t="s">
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
-        <v>3141096298</v>
+      <c r="A24" t="s">
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3123234920</v>
+        <v>3531264676</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
-        <v>3221487342</v>
+      <c r="A26" t="s">
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3153517101</v>
+        <v>3121022065</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
-        <v>3131087843</v>
+      <c r="A28" t="s">
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3121653494</v>
+        <v>3531035974</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30">
-        <v>3231067733</v>
+      <c r="A30" t="s">
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>3221987297</v>
+        <v>3123092449</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>3121572352</v>
+        <v>3531471221</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>3224291363</v>
+        <v>3121399592</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
-        <v>3122315058</v>
+      <c r="A34" t="s">
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>3221681790</v>
+        <v>3121428580</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>3141170962</v>
+        <v>3121982565</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>3221800075</v>
+        <v>3121623683</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>3221905851</v>
+        <v>3121653494</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3221428411</v>
+        <v>3121568667</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>3221206608</v>
+        <v>3122425519</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>3122437906</v>
+        <v>3111135542</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
-        <v>3121525507</v>
+      <c r="A42" t="s">
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>3221712774</v>
+        <v>3531088394</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
-        <v>3221826768</v>
+      <c r="A44" t="s">
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>3222311641</v>
+        <v>3531056464</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46">
-        <v>3121687245</v>
+      <c r="A46" t="s">
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>3121568667</v>
+        <v>3531100932</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48">
-        <v>3141014948</v>
+      <c r="A48" t="s">
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49">
-        <v>3121943747</v>
+      <c r="A49" t="s">
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>3221485991</v>
+        <v>3531073822</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51">
-        <v>3231127344</v>
+      <c r="A51" t="s">
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52">
-        <v>3143050482</v>
+      <c r="A52" t="s">
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53">
-        <v>3121632429</v>
+      <c r="A53" t="s">
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54">
-        <v>3123195570</v>
+      <c r="A54" t="s">
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55">
-        <v>3121498284</v>
+      <c r="A55" t="s">
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>3121451228</v>
+        <v>3535351033</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57">
-        <v>3231042322</v>
+      <c r="A57" t="s">
+        <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>3123008846</v>
+        <v>3531028543</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>3125500146</v>
+        <v>3121061338</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60">
-        <v>3123008712</v>
+      <c r="A60" t="s">
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61">
-        <v>3122102100</v>
+      <c r="A61" t="s">
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>3221306055</v>
+        <v>3121187356</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63">
-        <v>3231009565</v>
+      <c r="A63" t="s">
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>3221207516</v>
+        <v>3121071671</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>3221072031</v>
+        <v>3121387943</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66">
-        <v>3231050466</v>
+      <c r="A66" t="s">
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>3221814408</v>
+        <v>3121948677</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>3221033347</v>
+        <v>3121451228</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>3141252391</v>
+        <v>3535397544</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>3191000168</v>
+        <v>3531089988</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>3222053575</v>
+        <v>3121687245</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72">
-        <v>3231059153</v>
+      <c r="A72" t="s">
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73">
-        <v>3221328748</v>
+      <c r="A73" t="s">
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74">
-        <v>3221526146</v>
+      <c r="A74" t="s">
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75">
-        <v>3133240294</v>
+      <c r="A75" t="s">
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76">
-        <v>3123234422</v>
+      <c r="A76" t="s">
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3221050670</v>
+        <v>3121217086</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>3121459913</v>
+        <v>3121316821</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79">
-        <v>3125937380</v>
+      <c r="A79" t="s">
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>3141201187</v>
+        <v>3531100094</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>3121687245</v>
+        <v>3111501657</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82">
-        <v>3122564434</v>
+      <c r="A82" t="s">
+        <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>3151005110</v>
+        <v>3121343305</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84">
-        <v>3123092449</v>
+      <c r="A84" t="s">
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85">
-        <v>3221050120</v>
+      <c r="A85" t="s">
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86">
-        <v>3123196834</v>
+      <c r="A86" t="s">
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>3123172364</v>
+        <v>3111227232</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88">
-        <v>3231003128</v>
+      <c r="A88" t="s">
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>3129438623</v>
+        <v>3122437906</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90">
-        <v>3221997975</v>
+      <c r="A90" t="s">
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91">
-        <v>3143383254</v>
+      <c r="A91" t="s">
+        <v>49</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92">
-        <v>3222165058</v>
+      <c r="A92" t="s">
+        <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>3231065784</v>
+        <v>3121316123</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>3121948677</v>
+        <v>3123172364</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95">
-        <v>3171051914</v>
+      <c r="A95" t="s">
+        <v>51</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96">
-        <v>3221356815</v>
+      <c r="A96" t="s">
+        <v>52</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>3221324529</v>
+        <v>3121943747</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>3231014237</v>
+        <v>3121632429</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>3123195598</v>
+        <v>3121203934</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100">
-        <v>3121623683</v>
+      <c r="A100" t="s">
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>3231087742</v>
+        <v>3121525507</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>3121435565</v>
+      </c>
+      <c r="B102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>3121321896</v>
+      </c>
+      <c r="B103" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>3112017704</v>
+      </c>
+      <c r="B106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>3121143879</v>
+      </c>
+      <c r="B109" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>3118478340</v>
+      </c>
+      <c r="B110" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>3112304001</v>
+      </c>
+      <c r="B111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>3531013395</v>
+      </c>
+      <c r="B112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>3122102100</v>
+      </c>
+      <c r="B113" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>58</v>
+      </c>
+      <c r="B114" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>3531424184</v>
+      </c>
+      <c r="B115" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>59</v>
+      </c>
+      <c r="B116" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>3123008712</v>
+      </c>
+      <c r="B119" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>78</v>
+      </c>
+      <c r="C120" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>3121007173</v>
+      </c>
+      <c r="B121" t="s">
+        <v>79</v>
+      </c>
+      <c r="C121" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>3121321517</v>
+      </c>
+      <c r="B122" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>3121269731</v>
+      </c>
+      <c r="B123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>3531052080</v>
+      </c>
+      <c r="B124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" t="s">
+        <v>78</v>
+      </c>
+      <c r="C125" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>3121094334</v>
+      </c>
+      <c r="B126" t="s">
+        <v>79</v>
+      </c>
+      <c r="C126" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>64</v>
+      </c>
+      <c r="B127" t="s">
+        <v>78</v>
+      </c>
+      <c r="C127" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>65</v>
+      </c>
+      <c r="B128" t="s">
+        <v>78</v>
+      </c>
+      <c r="C128" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" t="s">
+        <v>78</v>
+      </c>
+      <c r="C129" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>67</v>
+      </c>
+      <c r="B130" t="s">
+        <v>78</v>
+      </c>
+      <c r="C130" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" t="s">
+        <v>78</v>
+      </c>
+      <c r="C131" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>69</v>
+      </c>
+      <c r="B132" t="s">
+        <v>78</v>
+      </c>
+      <c r="C132" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>3122315058</v>
+      </c>
+      <c r="B133" t="s">
+        <v>79</v>
+      </c>
+      <c r="C133" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>3531240411</v>
+      </c>
+      <c r="B134" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>3121381256</v>
+      </c>
+      <c r="B135" t="s">
+        <v>79</v>
+      </c>
+      <c r="C135" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" t="s">
+        <v>78</v>
+      </c>
+      <c r="C136" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>3531017970</v>
+      </c>
+      <c r="B137" t="s">
+        <v>79</v>
+      </c>
+      <c r="C137" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>3121308020</v>
+      </c>
+      <c r="B138" t="s">
+        <v>79</v>
+      </c>
+      <c r="C138" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>71</v>
+      </c>
+      <c r="B139" t="s">
+        <v>78</v>
+      </c>
+      <c r="C139" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>3121459913</v>
+      </c>
+      <c r="B140" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>72</v>
+      </c>
+      <c r="B141" t="s">
+        <v>78</v>
+      </c>
+      <c r="C141" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>3121553334</v>
+      </c>
+      <c r="B142" t="s">
+        <v>79</v>
+      </c>
+      <c r="C142" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>3123008846</v>
+      </c>
+      <c r="B143" t="s">
+        <v>79</v>
+      </c>
+      <c r="C143" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>73</v>
+      </c>
+      <c r="B144" t="s">
+        <v>78</v>
+      </c>
+      <c r="C144" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>3531084875</v>
+      </c>
+      <c r="B145" t="s">
+        <v>79</v>
+      </c>
+      <c r="C145" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>3531084144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>79</v>
+      </c>
+      <c r="C146" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>74</v>
+      </c>
+      <c r="B147" t="s">
+        <v>78</v>
+      </c>
+      <c r="C147" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>3112463535</v>
+      </c>
+      <c r="B148" t="s">
+        <v>79</v>
+      </c>
+      <c r="C148" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>75</v>
+      </c>
+      <c r="B149" t="s">
+        <v>78</v>
+      </c>
+      <c r="C149" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>76</v>
+      </c>
+      <c r="B150" t="s">
+        <v>78</v>
+      </c>
+      <c r="C150" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>77</v>
+      </c>
+      <c r="B151" t="s">
+        <v>78</v>
+      </c>
+      <c r="C151" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Vallarta/rondaY.xlsx
+++ b/Vallarta/rondaY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="150">
   <si>
     <t>Movil</t>
   </si>
@@ -25,229 +25,442 @@
     <t>Imagen</t>
   </si>
   <si>
+    <t>3335552006</t>
+  </si>
+  <si>
+    <t>33 1024 1144</t>
+  </si>
+  <si>
+    <t>311 247 5008</t>
+  </si>
+  <si>
+    <t>4431017835</t>
+  </si>
+  <si>
+    <t>3335597256</t>
+  </si>
+  <si>
+    <t>443 100 2598</t>
+  </si>
+  <si>
+    <t>311 183 3030</t>
+  </si>
+  <si>
+    <t>33 1573 9262</t>
+  </si>
+  <si>
+    <t>311 909 5778</t>
+  </si>
+  <si>
+    <t>311 267 2411</t>
+  </si>
+  <si>
+    <t>311 270 9913</t>
+  </si>
+  <si>
+    <t>311 268 1146</t>
+  </si>
+  <si>
+    <t>443 118 3818</t>
+  </si>
+  <si>
+    <t>311 456 3079</t>
+  </si>
+  <si>
+    <t>3881017114</t>
+  </si>
+  <si>
+    <t>443 100 0105</t>
+  </si>
+  <si>
+    <t>33 1828 2828</t>
+  </si>
+  <si>
+    <t>33 4296 7265</t>
+  </si>
+  <si>
+    <t>33 1894 7614</t>
+  </si>
+  <si>
+    <t>311 227 9358</t>
+  </si>
+  <si>
+    <t>311 137 1473</t>
+  </si>
+  <si>
+    <t>3891001887</t>
+  </si>
+  <si>
+    <t>4433460868</t>
+  </si>
+  <si>
+    <t>33 3027 7977</t>
+  </si>
+  <si>
+    <t>311 324 5860</t>
+  </si>
+  <si>
+    <t>443 132 6438</t>
+  </si>
+  <si>
+    <t>3339005439</t>
+  </si>
+  <si>
+    <t>311 195 0529</t>
+  </si>
+  <si>
+    <t>322 144 7950</t>
+  </si>
+  <si>
+    <t>311 264 6010</t>
+  </si>
+  <si>
+    <t>311 261 5018</t>
+  </si>
+  <si>
+    <t>3434270445</t>
+  </si>
+  <si>
+    <t>33 1449 7901</t>
+  </si>
+  <si>
+    <t>327 113 0171</t>
+  </si>
+  <si>
+    <t>443 135 3947</t>
+  </si>
+  <si>
+    <t>5522701047</t>
+  </si>
+  <si>
+    <t>322 138 4693</t>
+  </si>
+  <si>
+    <t>311 847 9142</t>
+  </si>
+  <si>
+    <t>311 373 1640</t>
+  </si>
+  <si>
+    <t>3481217617</t>
+  </si>
+  <si>
+    <t>3757560169</t>
+  </si>
+  <si>
+    <t>33 1077 8235</t>
+  </si>
+  <si>
+    <t>3511071791</t>
+  </si>
+  <si>
+    <t>33 1119 9099</t>
+  </si>
+  <si>
+    <t>434 114 8571</t>
+  </si>
+  <si>
+    <t>5522715076</t>
+  </si>
+  <si>
+    <t>322 146 3728</t>
+  </si>
+  <si>
+    <t>311 378 9793</t>
+  </si>
+  <si>
+    <t>322 779 2140</t>
+  </si>
+  <si>
+    <t>311 103 2584</t>
+  </si>
+  <si>
+    <t>3335085862</t>
+  </si>
+  <si>
+    <t>4433300850</t>
+  </si>
+  <si>
+    <t>33 1411 3829</t>
+  </si>
+  <si>
+    <t>311 593 6606</t>
+  </si>
+  <si>
+    <t>311 331 4834</t>
+  </si>
+  <si>
+    <t>311 743 4849</t>
+  </si>
+  <si>
+    <t>322 123 3337</t>
+  </si>
+  <si>
+    <t>3336773563</t>
+  </si>
+  <si>
+    <t>311 123 2038</t>
+  </si>
+  <si>
+    <t>33 3968 7988</t>
+  </si>
+  <si>
+    <t>44 33 92 26 55</t>
+  </si>
+  <si>
+    <t>311 285 8707</t>
+  </si>
+  <si>
+    <t>311 230 2435</t>
+  </si>
+  <si>
+    <t>311 107 8027</t>
+  </si>
+  <si>
+    <t>311 117 6490</t>
+  </si>
+  <si>
+    <t>443 115 3734</t>
+  </si>
+  <si>
+    <t>434 104 9903</t>
+  </si>
+  <si>
+    <t>33 1580 0600</t>
+  </si>
+  <si>
+    <t>33 1847 2289</t>
+  </si>
+  <si>
+    <t>3336621415</t>
+  </si>
+  <si>
+    <t>311 743 4233</t>
+  </si>
+  <si>
+    <t>322 130 0378</t>
+  </si>
+  <si>
+    <t>434 104 6794</t>
+  </si>
+  <si>
+    <t>311 214 1802</t>
+  </si>
+  <si>
+    <t>311 282 2626</t>
+  </si>
+  <si>
+    <t>322 144 5884</t>
+  </si>
+  <si>
+    <t>33 4040 7241</t>
+  </si>
+  <si>
+    <t>322 121 6554</t>
+  </si>
+  <si>
+    <t>3931262752</t>
+  </si>
+  <si>
+    <t>311 393 6401</t>
+  </si>
+  <si>
+    <t>311 114 0469</t>
+  </si>
+  <si>
+    <t>311 851 0062</t>
+  </si>
+  <si>
+    <t>4432096402</t>
+  </si>
+  <si>
+    <t>311 105 6623</t>
+  </si>
+  <si>
+    <t>311 149 4576</t>
+  </si>
+  <si>
+    <t>311 136 1186</t>
+  </si>
+  <si>
+    <t>311 148 8691</t>
+  </si>
+  <si>
+    <t>311 269 5129</t>
+  </si>
+  <si>
+    <t>3411462014</t>
+  </si>
+  <si>
+    <t>311 106 7972</t>
+  </si>
+  <si>
+    <t>3338086928</t>
+  </si>
+  <si>
+    <t>442 152 8091</t>
+  </si>
+  <si>
+    <t>311 141 7110</t>
+  </si>
+  <si>
+    <t>311 184 8669</t>
+  </si>
+  <si>
+    <t>311 122 9842</t>
+  </si>
+  <si>
+    <t>33 3129 7732</t>
+  </si>
+  <si>
+    <t>4969615171</t>
+  </si>
+  <si>
+    <t>311 740 3376</t>
+  </si>
+  <si>
+    <t>4433115284</t>
+  </si>
+  <si>
+    <t>311 204 8920</t>
+  </si>
+  <si>
+    <t>443 138 2911</t>
+  </si>
+  <si>
+    <t>311 391 1544</t>
+  </si>
+  <si>
+    <t>33 1672 5779</t>
+  </si>
+  <si>
+    <t>329 298 1428</t>
+  </si>
+  <si>
+    <t>3481054406</t>
+  </si>
+  <si>
+    <t>311 350 3291</t>
+  </si>
+  <si>
+    <t>443 136 8344</t>
+  </si>
+  <si>
+    <t>33 2003 0392</t>
+  </si>
+  <si>
+    <t>322 150 6525</t>
+  </si>
+  <si>
+    <t>443 137 8850</t>
+  </si>
+  <si>
+    <t>322 149 0269</t>
+  </si>
+  <si>
+    <t>311 108 1385</t>
+  </si>
+  <si>
+    <t>311 136 5745</t>
+  </si>
+  <si>
     <t>4433400314</t>
   </si>
   <si>
+    <t>322 136 3035</t>
+  </si>
+  <si>
+    <t>4432750212</t>
+  </si>
+  <si>
+    <t>443 126 4706</t>
+  </si>
+  <si>
     <t>3335974581</t>
   </si>
   <si>
-    <t>3434270445</t>
+    <t>443 104 4842</t>
+  </si>
+  <si>
+    <t>311 910 7405</t>
+  </si>
+  <si>
+    <t>33 3944 3607</t>
+  </si>
+  <si>
+    <t>4432885314</t>
+  </si>
+  <si>
+    <t>311 121 2121</t>
+  </si>
+  <si>
+    <t>3334975686</t>
+  </si>
+  <si>
+    <t>311 132 2039</t>
+  </si>
+  <si>
+    <t>434 115 1834</t>
+  </si>
+  <si>
+    <t>311 132 6444</t>
+  </si>
+  <si>
+    <t>3511863623</t>
   </si>
   <si>
     <t>4521071268</t>
   </si>
   <si>
-    <t>3335085862</t>
+    <t>3336778915</t>
+  </si>
+  <si>
+    <t>4747380252</t>
+  </si>
+  <si>
+    <t>311 847 9195</t>
+  </si>
+  <si>
+    <t>327 109 7981</t>
+  </si>
+  <si>
+    <t>443 137 7706</t>
+  </si>
+  <si>
+    <t>311 201 2247</t>
   </si>
   <si>
     <t>3411083920</t>
   </si>
   <si>
-    <t>3318507788</t>
-  </si>
-  <si>
-    <t>3334402014</t>
-  </si>
-  <si>
-    <t>3411462014</t>
-  </si>
-  <si>
-    <t>4432885314</t>
-  </si>
-  <si>
-    <t>3315170011</t>
-  </si>
-  <si>
-    <t>3332015513</t>
-  </si>
-  <si>
-    <t>3331828951</t>
-  </si>
-  <si>
-    <t>3314663761</t>
-  </si>
-  <si>
-    <t>3321916212</t>
-  </si>
-  <si>
-    <t>311 103 2584</t>
-  </si>
-  <si>
-    <t>3331270202</t>
-  </si>
-  <si>
-    <t>3336621415</t>
-  </si>
-  <si>
-    <t>5522701047</t>
-  </si>
-  <si>
-    <t>4747380252</t>
-  </si>
-  <si>
-    <t>3481217617</t>
-  </si>
-  <si>
-    <t>3336778915</t>
-  </si>
-  <si>
-    <t>4433460868</t>
-  </si>
-  <si>
-    <t>3334975686</t>
-  </si>
-  <si>
-    <t>3335552006</t>
-  </si>
-  <si>
-    <t>3329647616</t>
-  </si>
-  <si>
-    <t>3757560169</t>
-  </si>
-  <si>
-    <t>3335597256</t>
-  </si>
-  <si>
-    <t>3535351033</t>
-  </si>
-  <si>
-    <t>3316339041</t>
-  </si>
-  <si>
-    <t>3334403115</t>
+    <t>443 111 7578</t>
+  </si>
+  <si>
+    <t>311 250 5159</t>
+  </si>
+  <si>
+    <t>311 253 1963</t>
+  </si>
+  <si>
+    <t>4751027431</t>
   </si>
   <si>
     <t>311 103 1824</t>
   </si>
   <si>
-    <t>3320022400</t>
-  </si>
-  <si>
-    <t>3334760160</t>
-  </si>
-  <si>
-    <t>3331952535</t>
-  </si>
-  <si>
-    <t>3322689657</t>
-  </si>
-  <si>
-    <t>3333990903</t>
-  </si>
-  <si>
-    <t>3314793110</t>
-  </si>
-  <si>
-    <t>4432750212</t>
-  </si>
-  <si>
-    <t>4433115284</t>
-  </si>
-  <si>
-    <t>3881017114</t>
-  </si>
-  <si>
-    <t>3333793651</t>
-  </si>
-  <si>
-    <t>4433300850</t>
-  </si>
-  <si>
-    <t>3531084144</t>
-  </si>
-  <si>
-    <t>3481054406</t>
-  </si>
-  <si>
-    <t>3511071791</t>
-  </si>
-  <si>
-    <t>3334487027</t>
-  </si>
-  <si>
-    <t>3318635310</t>
-  </si>
-  <si>
-    <t>3331470808</t>
-  </si>
-  <si>
-    <t>3319172125</t>
-  </si>
-  <si>
-    <t>3316045376</t>
-  </si>
-  <si>
-    <t>4969615171</t>
-  </si>
-  <si>
-    <t>4431017835</t>
-  </si>
-  <si>
-    <t>3317254189</t>
-  </si>
-  <si>
-    <t>3318522825</t>
-  </si>
-  <si>
-    <t>311 105 6623</t>
-  </si>
-  <si>
-    <t>3339005439</t>
-  </si>
-  <si>
-    <t>5522715076</t>
-  </si>
-  <si>
-    <t>3331396721</t>
-  </si>
-  <si>
-    <t>3318931760</t>
-  </si>
-  <si>
-    <t>3314710572</t>
-  </si>
-  <si>
-    <t>3511863623</t>
-  </si>
-  <si>
-    <t>3334481765</t>
-  </si>
-  <si>
-    <t>3320566229</t>
-  </si>
-  <si>
-    <t>3316028663</t>
-  </si>
-  <si>
-    <t>3336773563</t>
-  </si>
-  <si>
-    <t>3323752289</t>
-  </si>
-  <si>
-    <t>4751027431</t>
-  </si>
-  <si>
-    <t>3316613222</t>
-  </si>
-  <si>
-    <t>3317178429</t>
-  </si>
-  <si>
-    <t>3511494709</t>
-  </si>
-  <si>
-    <t>311 106 7972</t>
-  </si>
-  <si>
-    <t>3338086928</t>
-  </si>
-  <si>
-    <t>3891001887</t>
-  </si>
-  <si>
-    <t>3931262752</t>
+    <t>33 3584 0483</t>
+  </si>
+  <si>
+    <t>311 263 2365</t>
+  </si>
+  <si>
+    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
+🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
+📆 27-28 de junio
+📍 Centro Internacional de Convenciones, Puerto Vallarta
+https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
+Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
+📲 Más info: 56 1858 7276 / 32 2596 0129</t>
   </si>
   <si>
     <t>🚀 ¡No te pierdas el EXPO del SUMMIT TURÍSTICO INTERNACIONAL en Puerto Vallarta! 🌎✨
@@ -262,19 +475,10 @@
 ¡Lleva tu carrera al siguiente nivel! 🌟</t>
   </si>
   <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
-https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0129</t>
+    <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\summita.png</t>
   </si>
   <si>
     <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\simmitb.png</t>
-  </si>
-  <si>
-    <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\summita.png</t>
   </si>
 </sst>
 </file>
@@ -632,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,10 +858,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -665,1638 +869,1561 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3123195570</v>
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
-        <v>3122564434</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
-        <v>3121393478</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
-        <v>3121483855</v>
+      <c r="A13" t="s">
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
-        <v>3121498284</v>
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
-        <v>3121375673</v>
+      <c r="A17" t="s">
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
-        <v>3531036254</v>
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
-        <v>3121572352</v>
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
-        <v>3531264676</v>
+      <c r="A25" t="s">
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
-        <v>3121022065</v>
+      <c r="A27" t="s">
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29">
-        <v>3531035974</v>
+      <c r="A29" t="s">
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31">
-        <v>3123092449</v>
+      <c r="A31" t="s">
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
-        <v>3531471221</v>
+      <c r="A32" t="s">
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33">
-        <v>3121399592</v>
+      <c r="A33" t="s">
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
-        <v>3121428580</v>
+      <c r="A35" t="s">
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
-        <v>3121982565</v>
+      <c r="A36" t="s">
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37">
-        <v>3121623683</v>
+      <c r="A37" t="s">
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38">
-        <v>3121653494</v>
+      <c r="A38" t="s">
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39">
-        <v>3121568667</v>
+      <c r="A39" t="s">
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40">
-        <v>3122425519</v>
+      <c r="A40" t="s">
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41">
-        <v>3111135542</v>
+      <c r="A41" t="s">
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
-        <v>3531088394</v>
+      <c r="A43" t="s">
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45">
-        <v>3531056464</v>
+      <c r="A45" t="s">
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47">
-        <v>3531100932</v>
+      <c r="A47" t="s">
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50">
-        <v>3531073822</v>
+      <c r="A50" t="s">
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56">
-        <v>3535351033</v>
+      <c r="A56" t="s">
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58">
-        <v>3531028543</v>
+      <c r="A58" t="s">
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59">
-        <v>3121061338</v>
+      <c r="A59" t="s">
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62">
-        <v>3121187356</v>
+      <c r="A62" t="s">
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64">
-        <v>3121071671</v>
+      <c r="A64" t="s">
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65">
-        <v>3121387943</v>
+      <c r="A65" t="s">
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67">
-        <v>3121948677</v>
+      <c r="A67" t="s">
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68">
-        <v>3121451228</v>
+      <c r="A68" t="s">
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69">
-        <v>3535397544</v>
+      <c r="A69" t="s">
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70">
-        <v>3531089988</v>
+      <c r="A70" t="s">
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71">
-        <v>3121687245</v>
+      <c r="A71" t="s">
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
         <v>78</v>
       </c>
-      <c r="C76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>3121217086</v>
-      </c>
       <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>79</v>
       </c>
-      <c r="C77" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
-        <v>3121316821</v>
-      </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80">
-        <v>3531100094</v>
+      <c r="A80" t="s">
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81">
-        <v>3111501657</v>
+      <c r="A81" t="s">
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83">
-        <v>3121343305</v>
+      <c r="A83" t="s">
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87">
-        <v>3111227232</v>
+      <c r="A87" t="s">
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C87" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89">
-        <v>3122437906</v>
+      <c r="A89" t="s">
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C91" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C92" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93">
-        <v>3121316123</v>
+      <c r="A93" t="s">
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C93" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94">
-        <v>3123172364</v>
+      <c r="A94" t="s">
+        <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97">
-        <v>3121943747</v>
+      <c r="A97" t="s">
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C97" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98">
-        <v>3121632429</v>
+      <c r="A98" t="s">
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99">
-        <v>3121203934</v>
+      <c r="A99" t="s">
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101">
-        <v>3121525507</v>
+      <c r="A101" t="s">
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C101" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102">
-        <v>3121435565</v>
+      <c r="A102" t="s">
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C102" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103">
-        <v>3121321896</v>
+      <c r="A103" t="s">
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C103" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C104" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C105" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106">
-        <v>3112017704</v>
+      <c r="A106" t="s">
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C107" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C108" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109">
-        <v>3121143879</v>
+      <c r="A109" t="s">
+        <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C109" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110">
-        <v>3118478340</v>
+      <c r="A110" t="s">
+        <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C110" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111">
-        <v>3112304001</v>
+      <c r="A111" t="s">
+        <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C111" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112">
-        <v>3531013395</v>
+      <c r="A112" t="s">
+        <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C112" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113">
-        <v>3122102100</v>
+      <c r="A113" t="s">
+        <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C113" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C114" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115">
-        <v>3531424184</v>
+      <c r="A115" t="s">
+        <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C115" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C116" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C117" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C118" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119">
-        <v>3123008712</v>
+      <c r="A119" t="s">
+        <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C119" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C120" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121">
-        <v>3121007173</v>
+      <c r="A121" t="s">
+        <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C121" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122">
-        <v>3121321517</v>
+      <c r="A122" t="s">
+        <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C122" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123">
-        <v>3121269731</v>
+      <c r="A123" t="s">
+        <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124">
-        <v>3531052080</v>
+      <c r="A124" t="s">
+        <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C124" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C125" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126">
-        <v>3121094334</v>
+      <c r="A126" t="s">
+        <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C127" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C128" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C129" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C130" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C131" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C132" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133">
-        <v>3122315058</v>
+      <c r="A133" t="s">
+        <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C133" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134">
-        <v>3531240411</v>
+      <c r="A134" t="s">
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C134" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135">
-        <v>3121381256</v>
+      <c r="A135" t="s">
+        <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C135" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C136" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137">
-        <v>3531017970</v>
+      <c r="A137" t="s">
+        <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C137" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138">
-        <v>3121308020</v>
+      <c r="A138" t="s">
+        <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C138" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140">
-        <v>3121459913</v>
+      <c r="A140" t="s">
+        <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C140" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C141" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142">
-        <v>3121553334</v>
+      <c r="A142" t="s">
+        <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143">
-        <v>3123008846</v>
+      <c r="A143" t="s">
+        <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145">
-        <v>3531084875</v>
-      </c>
-      <c r="B145" t="s">
-        <v>79</v>
-      </c>
-      <c r="C145" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146">
-        <v>3531084144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>79</v>
-      </c>
-      <c r="C146" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>74</v>
-      </c>
-      <c r="B147" t="s">
-        <v>78</v>
-      </c>
-      <c r="C147" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148">
-        <v>3112463535</v>
-      </c>
-      <c r="B148" t="s">
-        <v>79</v>
-      </c>
-      <c r="C148" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>75</v>
-      </c>
-      <c r="B149" t="s">
-        <v>78</v>
-      </c>
-      <c r="C149" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>76</v>
-      </c>
-      <c r="B150" t="s">
-        <v>78</v>
-      </c>
-      <c r="C150" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>77</v>
-      </c>
-      <c r="B151" t="s">
-        <v>78</v>
-      </c>
-      <c r="C151" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Vallarta/rondaY.xlsx
+++ b/Vallarta/rondaY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="11">
   <si>
     <t>Movil</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>Imagen</t>
+  </si>
+  <si>
+    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
+🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
+📆 27-28 de junio
+📍 Centro Internacional de Convenciones, Puerto Vallarta
+https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
+Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
+📲 Más info: 56 1858 7276 / 32 2596 0129</t>
+  </si>
+  <si>
+    <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\summita.png</t>
   </si>
   <si>
     <t>🚀 ¡No te pierdas el EXPO del SUMMIT TURÍSTICO INTERNACIONAL en Puerto Vallarta! 🌎✨
@@ -38,18 +50,6 @@
   </si>
   <si>
     <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\simmitb.png</t>
-  </si>
-  <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
-https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0129</t>
-  </si>
-  <si>
-    <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\summita.png</t>
   </si>
   <si>
     <t>311 103 2584</t>
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +79,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,17 +147,20 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -458,15 +467,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -480,9 +489,9 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="184.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="146.25">
       <c r="A2" s="3">
-        <v>3335974581</v>
+        <v>3123195570</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -492,19 +501,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="146.25">
-      <c r="A3" s="5">
-        <v>3123195570</v>
+      <c r="A3" s="3">
+        <v>3122564434</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="146.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="184.5">
       <c r="A4" s="5">
-        <v>3122564434</v>
+        <v>3434270445</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -514,19 +523,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="184.5">
-      <c r="A5" s="3">
-        <v>3434270445</v>
+      <c r="A5" s="5">
+        <v>4521071268</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="184.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="146.25">
       <c r="A6" s="3">
-        <v>4521071268</v>
+        <v>3121393478</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
@@ -535,9 +544,9 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="146.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="184.5">
       <c r="A7" s="5">
-        <v>3121393478</v>
+        <v>3335085862</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -547,41 +556,41 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="184.5">
-      <c r="A8" s="3">
-        <v>3335085862</v>
+      <c r="A8" s="5">
+        <v>3411083920</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="184.5">
-      <c r="A9" s="3">
-        <v>3411083920</v>
+      <c r="A9" s="5">
+        <v>3318507788</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="184.5">
-      <c r="A10" s="3">
-        <v>3318507788</v>
+      <c r="A10" s="5">
+        <v>3334402014</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="184.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="146.25">
       <c r="A11" s="3">
-        <v>3334402014</v>
+        <v>3121483855</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
@@ -591,19 +600,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="146.25">
-      <c r="A12" s="5">
-        <v>3121483855</v>
+      <c r="A12" s="3">
+        <v>3121498284</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="146.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="184.5">
       <c r="A13" s="5">
-        <v>3121498284</v>
+        <v>3411462014</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
@@ -613,19 +622,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="184.5">
-      <c r="A14" s="3">
-        <v>3411462014</v>
+      <c r="A14" s="5">
+        <v>4432885314</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="184.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="146.25">
       <c r="A15" s="3">
-        <v>4432885314</v>
+        <v>3121375673</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
@@ -634,9 +643,9 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="146.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="184.5">
       <c r="A16" s="5">
-        <v>3121375673</v>
+        <v>3315170011</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>5</v>
@@ -646,19 +655,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="184.5">
-      <c r="A17" s="3">
-        <v>3315170011</v>
+      <c r="A17" s="5">
+        <v>3332015513</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="184.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="146.25">
       <c r="A18" s="3">
-        <v>3332015513</v>
+        <v>3531036254</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
@@ -668,19 +677,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="146.25">
-      <c r="A19" s="5">
-        <v>3531036254</v>
+      <c r="A19" s="3">
+        <v>3121572352</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="146.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="184.5">
       <c r="A20" s="5">
-        <v>3121572352</v>
+        <v>3331828951</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
@@ -689,31 +698,31 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="184.5">
-      <c r="A21" s="3">
-        <v>3331828951</v>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="5">
+        <v>3314663761</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3">
-        <v>3314663761</v>
+      <c r="A22" s="5">
+        <v>3321916212</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3">
-        <v>3321916212</v>
+        <v>3531264676</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
@@ -723,8 +732,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="5">
-        <v>3531264676</v>
+      <c r="A24" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>5</v>
@@ -734,8 +743,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3" t="s">
-        <v>7</v>
+      <c r="A25" s="3">
+        <v>3121022065</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
@@ -746,7 +755,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5">
-        <v>3121022065</v>
+        <v>3331270202</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>5</v>
@@ -757,7 +766,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3">
-        <v>3331270202</v>
+        <v>3531035974</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
@@ -768,7 +777,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="5">
-        <v>3531035974</v>
+        <v>3336621415</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>5</v>
@@ -779,7 +788,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3">
-        <v>3336621415</v>
+        <v>3123092449</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>3</v>
@@ -789,30 +798,30 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="5">
-        <v>3123092449</v>
+      <c r="A30" s="3">
+        <v>3531471221</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="5">
-        <v>3531471221</v>
+      <c r="A31" s="3">
+        <v>3121399592</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="5">
-        <v>3121399592</v>
+        <v>5522701047</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>5</v>
@@ -823,7 +832,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3">
-        <v>5522701047</v>
+        <v>3121428580</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>3</v>
@@ -833,74 +842,74 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="5">
-        <v>3121428580</v>
+      <c r="A34" s="3">
+        <v>3121982565</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="5">
-        <v>3121982565</v>
+      <c r="A35" s="3">
+        <v>3121623683</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="5">
-        <v>3121623683</v>
+      <c r="A36" s="3">
+        <v>3121653494</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="5">
-        <v>3121653494</v>
+      <c r="A37" s="3">
+        <v>3121568667</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="5">
-        <v>3121568667</v>
+      <c r="A38" s="3">
+        <v>3122425519</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="5">
-        <v>3122425519</v>
+      <c r="A39" s="3">
+        <v>3111135542</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="5">
-        <v>3111135542</v>
+        <v>4747380252</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>5</v>
@@ -911,7 +920,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3">
-        <v>4747380252</v>
+        <v>3531088394</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>3</v>
@@ -922,7 +931,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="5">
-        <v>3531088394</v>
+        <v>3481217617</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>5</v>
@@ -933,7 +942,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3">
-        <v>3481217617</v>
+        <v>3531056464</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>3</v>
@@ -944,7 +953,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="5">
-        <v>3531056464</v>
+        <v>3336778915</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>5</v>
@@ -955,7 +964,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3">
-        <v>3336778915</v>
+        <v>3531100932</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>3</v>
@@ -966,7 +975,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="5">
-        <v>3531100932</v>
+        <v>4433460868</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>5</v>
@@ -976,19 +985,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="3">
-        <v>4433460868</v>
+      <c r="A47" s="5">
+        <v>3334975686</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3">
-        <v>3334975686</v>
+        <v>3531073822</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>3</v>
@@ -999,7 +1008,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="5">
-        <v>3531073822</v>
+        <v>3335552006</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>5</v>
@@ -1009,47 +1018,47 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="3">
-        <v>3335552006</v>
+      <c r="A50" s="5">
+        <v>3329647616</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="3">
-        <v>3329647616</v>
+      <c r="A51" s="5">
+        <v>3757560169</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="3">
-        <v>3757560169</v>
+      <c r="A52" s="5">
+        <v>3335597256</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="3">
-        <v>3335597256</v>
+      <c r="A53" s="5">
+        <v>3535351033</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
@@ -1065,7 +1074,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="5">
-        <v>3535351033</v>
+        <v>3316339041</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>5</v>
@@ -1076,7 +1085,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3">
-        <v>3316339041</v>
+        <v>3531028543</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>3</v>
@@ -1086,19 +1095,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="5">
-        <v>3531028543</v>
+      <c r="A57" s="3">
+        <v>3121061338</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="5">
-        <v>3121061338</v>
+        <v>3334403115</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>
@@ -1108,19 +1117,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="3">
-        <v>3334403115</v>
+      <c r="A59" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="3" t="s">
-        <v>8</v>
+      <c r="A60" s="3">
+        <v>3121187356</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>3</v>
@@ -1131,7 +1140,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="5">
-        <v>3121187356</v>
+        <v>3320022400</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>5</v>
@@ -1142,7 +1151,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3">
-        <v>3320022400</v>
+        <v>3121071671</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>3</v>
@@ -1152,19 +1161,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="5">
-        <v>3121071671</v>
+      <c r="A63" s="3">
+        <v>3121387943</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="5">
-        <v>3121387943</v>
+        <v>3334760160</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>5</v>
@@ -1175,7 +1184,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3">
-        <v>3334760160</v>
+        <v>3121948677</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>3</v>
@@ -1185,52 +1194,52 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="5">
-        <v>3121948677</v>
+      <c r="A66" s="3">
+        <v>3121451228</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="5">
-        <v>3121451228</v>
+      <c r="A67" s="3">
+        <v>3535397544</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="5">
-        <v>3535397544</v>
+      <c r="A68" s="3">
+        <v>3531089988</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="5">
-        <v>3531089988</v>
+      <c r="A69" s="3">
+        <v>3121687245</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="5">
-        <v>3121687245</v>
+        <v>3331952535</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>5</v>
@@ -1240,52 +1249,52 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="3">
-        <v>3331952535</v>
+      <c r="A71" s="5">
+        <v>3322689657</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="3">
-        <v>3322689657</v>
+      <c r="A72" s="5">
+        <v>3333990903</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="3">
-        <v>3333990903</v>
+      <c r="A73" s="5">
+        <v>3314793110</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="3">
-        <v>3314793110</v>
+      <c r="A74" s="5">
+        <v>4432750212</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3">
-        <v>4432750212</v>
+        <v>3121217086</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>3</v>
@@ -1295,19 +1304,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="5">
-        <v>3121217086</v>
+      <c r="A76" s="3">
+        <v>3121316821</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="5">
-        <v>3121316821</v>
+        <v>4433115284</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>5</v>
@@ -1318,7 +1327,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3">
-        <v>4433115284</v>
+        <v>3531100094</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>3</v>
@@ -1328,19 +1337,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="5">
-        <v>3531100094</v>
+      <c r="A79" s="3">
+        <v>3111501657</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="5">
-        <v>3111501657</v>
+        <v>3881017114</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>5</v>
@@ -1351,7 +1360,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3">
-        <v>3881017114</v>
+        <v>3121343305</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>3</v>
@@ -1362,7 +1371,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="5">
-        <v>3121343305</v>
+        <v>3333793651</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>5</v>
@@ -1372,30 +1381,30 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="3">
-        <v>3333793651</v>
+      <c r="A83" s="5">
+        <v>4433300850</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="3">
-        <v>4433300850</v>
+      <c r="A84" s="5">
+        <v>3531084144</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3">
-        <v>3531084144</v>
+        <v>3111227232</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>3</v>
@@ -1406,7 +1415,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="5">
-        <v>3111227232</v>
+        <v>3481054406</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>5</v>
@@ -1417,7 +1426,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3">
-        <v>3481054406</v>
+        <v>3122437906</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>3</v>
@@ -1428,7 +1437,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="5">
-        <v>3122437906</v>
+        <v>3511071791</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>5</v>
@@ -1438,30 +1447,30 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="3">
-        <v>3511071791</v>
+      <c r="A89" s="5">
+        <v>3334487027</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="3">
-        <v>3334487027</v>
+      <c r="A90" s="5">
+        <v>3318635310</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3">
-        <v>3318635310</v>
+        <v>3121316123</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>3</v>
@@ -1471,19 +1480,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="5">
-        <v>3121316123</v>
+      <c r="A92" s="3">
+        <v>3123172364</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="5">
-        <v>3123172364</v>
+        <v>3331470808</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>5</v>
@@ -1493,19 +1502,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="3">
-        <v>3331470808</v>
+      <c r="A94" s="5">
+        <v>3319172125</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3">
-        <v>3319172125</v>
+        <v>3121943747</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>3</v>
@@ -1515,30 +1524,30 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="5">
-        <v>3121943747</v>
+      <c r="A96" s="3">
+        <v>3121632429</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="5">
-        <v>3121632429</v>
+      <c r="A97" s="3">
+        <v>3121203934</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="5">
-        <v>3121203934</v>
+        <v>3316045376</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>5</v>
@@ -1549,7 +1558,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3">
-        <v>3316045376</v>
+        <v>3121525507</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>3</v>
@@ -1559,30 +1568,30 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="5">
-        <v>3121525507</v>
+      <c r="A100" s="3">
+        <v>3121435565</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="5">
-        <v>3121435565</v>
+      <c r="A101" s="3">
+        <v>3121321896</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="5">
-        <v>3121321896</v>
+        <v>4969615171</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>5</v>
@@ -1592,19 +1601,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="3">
-        <v>4969615171</v>
+      <c r="A103" s="5">
+        <v>4431017835</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="3">
-        <v>4431017835</v>
+        <v>3112017704</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>3</v>
@@ -1615,7 +1624,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="5">
-        <v>3112017704</v>
+        <v>3317254189</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>5</v>
@@ -1625,19 +1634,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="3">
-        <v>3317254189</v>
+      <c r="A106" s="5">
+        <v>3318522825</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3">
-        <v>3318522825</v>
+        <v>3121143879</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>3</v>
@@ -1647,52 +1656,52 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="5">
-        <v>3121143879</v>
+      <c r="A108" s="3">
+        <v>3118478340</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="5">
-        <v>3118478340</v>
+      <c r="A109" s="3">
+        <v>3112304001</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="5">
-        <v>3112304001</v>
+      <c r="A110" s="3">
+        <v>3531013395</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="5">
-        <v>3531013395</v>
+      <c r="A111" s="3">
+        <v>3122102100</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="5">
-        <v>3122102100</v>
+      <c r="A112" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>5</v>
@@ -1702,8 +1711,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="3" t="s">
-        <v>9</v>
+      <c r="A113" s="3">
+        <v>3531424184</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>3</v>
@@ -1714,7 +1723,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="5">
-        <v>3531424184</v>
+        <v>3339005439</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>5</v>
@@ -1724,30 +1733,30 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="3">
-        <v>3339005439</v>
+      <c r="A115" s="5">
+        <v>5522715076</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="3">
-        <v>5522715076</v>
+      <c r="A116" s="5">
+        <v>3331396721</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3">
-        <v>3331396721</v>
+        <v>3123008712</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>3</v>
@@ -1758,7 +1767,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="5">
-        <v>3123008712</v>
+        <v>3318931760</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>5</v>
@@ -1769,7 +1778,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3">
-        <v>3318931760</v>
+        <v>3121007173</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>3</v>
@@ -1779,41 +1788,41 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="5">
-        <v>3121007173</v>
+      <c r="A120" s="3">
+        <v>3121321517</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="5">
-        <v>3121321517</v>
+      <c r="A121" s="3">
+        <v>3121269731</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="5">
-        <v>3121269731</v>
+      <c r="A122" s="3">
+        <v>3531052080</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="5">
-        <v>3531052080</v>
+        <v>3314710572</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>5</v>
@@ -1824,7 +1833,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3">
-        <v>3314710572</v>
+        <v>3121094334</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>3</v>
@@ -1835,7 +1844,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="5">
-        <v>3121094334</v>
+        <v>3511863623</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>5</v>
@@ -1845,63 +1854,63 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="3">
-        <v>3511863623</v>
+      <c r="A126" s="5">
+        <v>3334481765</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="3">
-        <v>3334481765</v>
+      <c r="A127" s="5">
+        <v>3320566229</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="3">
-        <v>3320566229</v>
+      <c r="A128" s="5">
+        <v>3316028663</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="3">
-        <v>3316028663</v>
+      <c r="A129" s="5">
+        <v>3336773563</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="3">
-        <v>3336773563</v>
+      <c r="A130" s="5">
+        <v>3323752289</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3">
-        <v>3323752289</v>
+        <v>3122315058</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>3</v>
@@ -1911,30 +1920,30 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="5">
-        <v>3122315058</v>
+      <c r="A132" s="3">
+        <v>3531240411</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="5">
-        <v>3531240411</v>
+      <c r="A133" s="3">
+        <v>3121381256</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="5">
-        <v>3121381256</v>
+        <v>4751027431</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>5</v>
@@ -1945,7 +1954,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3">
-        <v>4751027431</v>
+        <v>3531017970</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>3</v>
@@ -1955,19 +1964,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="5">
-        <v>3531017970</v>
+      <c r="A136" s="3">
+        <v>3121308020</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="5">
-        <v>3121308020</v>
+        <v>3316613222</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>5</v>
@@ -1978,7 +1987,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3">
-        <v>3316613222</v>
+        <v>3121459913</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>3</v>
@@ -1989,7 +1998,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="5">
-        <v>3121459913</v>
+        <v>3317178429</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>5</v>
@@ -2000,7 +2009,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3">
-        <v>3317178429</v>
+        <v>3121553334</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>3</v>
@@ -2010,19 +2019,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
-      <c r="A141" s="5">
-        <v>3121553334</v>
+      <c r="A141" s="3">
+        <v>3123008846</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="5">
-        <v>3123008846</v>
+        <v>3511494709</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>5</v>
@@ -2033,7 +2042,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3">
-        <v>3511494709</v>
+        <v>3531084875</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>3</v>
@@ -2043,19 +2052,19 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="5">
-        <v>3531084875</v>
+      <c r="A144" s="3">
+        <v>3531084144</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="5">
-        <v>3531084144</v>
+      <c r="A145" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>5</v>
@@ -2065,8 +2074,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="3" t="s">
-        <v>10</v>
+      <c r="A146" s="3">
+        <v>3112463535</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>3</v>
@@ -2077,7 +2086,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="5">
-        <v>3112463535</v>
+        <v>3338086928</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>5</v>
@@ -2087,36 +2096,25 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="3">
-        <v>3338086928</v>
+      <c r="A148" s="5">
+        <v>3891001887</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="3">
-        <v>3891001887</v>
+      <c r="A149" s="5">
+        <v>3931262752</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="3">
-        <v>3931262752</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
